--- a/KPoint-Workbook.xlsx
+++ b/KPoint-Workbook.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasanth/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasanth/ContainersInAzure/ContainersInAzure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5772512-597F-CA4B-A6C6-20394E7F9A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1164D9EE-05F2-1B43-BBD4-17894A4DD80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4066FA45-8196-4C47-AFFE-0BF8E5550CCA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{4066FA45-8196-4C47-AFFE-0BF8E5550CCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="Commands" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>2. Show and explain all the running images in Docker.</t>
   </si>
@@ -87,13 +88,153 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>docker pull nginx</t>
+  </si>
+  <si>
+    <t>docker image ls</t>
+  </si>
+  <si>
+    <t>docker ps -a</t>
+  </si>
+  <si>
+    <t>docker tag nginx nginx:prasanth</t>
+  </si>
+  <si>
+    <t>docker run -d -p 8080:80 nginx</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/index.html</t>
+  </si>
+  <si>
+    <t>docker pull ubuntu:20.04</t>
+  </si>
+  <si>
+    <t>docker run -ti --rm ubuntu:20.04 /bin/bash</t>
+  </si>
+  <si>
+    <t>docker exec -it ccae4670f030 /bin/bash</t>
+  </si>
+  <si>
+    <t>echo $PATH</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>cat /etc/os-release</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+  </si>
+  <si>
+    <t>docker cp index.html 4e9a58be259d:/usr/share/nginx/html/index.html</t>
+  </si>
+  <si>
+    <t>docker cp 4e9a58be259d:/usr/share/nginx/html/index.html download.html</t>
+  </si>
+  <si>
+    <t>vi index.html</t>
+  </si>
+  <si>
+    <t>docker run -d -v $(pwd):/usr/share/nginx/html:rw -p 8080:80 nginx</t>
+  </si>
+  <si>
+    <t>cd /usr/share/nginx/html</t>
+  </si>
+  <si>
+    <t>cat index.html</t>
+  </si>
+  <si>
+    <t>apt-get update</t>
+  </si>
+  <si>
+    <t>apt-get install vim</t>
+  </si>
+  <si>
+    <t>vi index.html - update content</t>
+  </si>
+  <si>
+    <t>exit of container</t>
+  </si>
+  <si>
+    <t>cat index.html from local</t>
+  </si>
+  <si>
+    <t>docker rm -f $(docker ps -a -q)</t>
+  </si>
+  <si>
+    <t>Create Dockerfile</t>
+  </si>
+  <si>
+    <t>create index.html file</t>
+  </si>
+  <si>
+    <t>docker build -t &lt;new_image_name&gt; .</t>
+  </si>
+  <si>
+    <t>docker run -d -p 8080:80 custom-nginx</t>
+  </si>
+  <si>
+    <t>turn on K8s in docker desktop (kubectl config use-context docker-desktop)</t>
+  </si>
+  <si>
+    <t>eval $(minikube -p minikube docker-env)</t>
+  </si>
+  <si>
+    <t>create YAML file with custome image</t>
+  </si>
+  <si>
+    <t>kubectl apply -f deployment.yaml</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/</t>
+  </si>
+  <si>
+    <t>kubectl get pods
+kubectl get deployments
+kubectl get services</t>
+  </si>
+  <si>
+    <t>Create ACR, AKS in Azure</t>
+  </si>
+  <si>
+    <t>docker tag custom-nginx containerinaz.azurecr.io/custom-nginx:latest</t>
+  </si>
+  <si>
+    <t>az login --scope https://management.core.windows.net//.default</t>
+  </si>
+  <si>
+    <t>az acr login -n containerinaz</t>
+  </si>
+  <si>
+    <t>docker push containerinaz.azurecr.io/custom-nginx:latest</t>
+  </si>
+  <si>
+    <t>12,13,14</t>
+  </si>
+  <si>
+    <t>az aks get-credentials --name ContainersInAzk8s --overwrite-existing --resource-group containersinazure</t>
+  </si>
+  <si>
+    <t>kubectl get svc,pods,deployments</t>
+  </si>
+  <si>
+    <t>http://20.207.65.53:8080/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +261,27 @@
       <color rgb="FF000000"/>
       <name val="Times"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF124164"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -137,11 +299,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -149,8 +374,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D31FBC-A489-824B-ACA6-D8CB0608118E}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+    <sheetView zoomScale="107" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -593,4 +846,410 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EC5DFE-99DF-2F43-BECF-2A2F09A63BB2}">
+  <dimension ref="A1:B64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="142.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" ht="19">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" ht="19">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" ht="19">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" ht="19">
+      <c r="A24" s="7">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2" ht="19">
+      <c r="A36" s="7">
+        <v>6</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2" ht="19">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" ht="19">
+      <c r="A39" s="7">
+        <v>7</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" ht="19">
+      <c r="A44" s="7">
+        <v>8</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="60">
+      <c r="A49" s="7"/>
+      <c r="B49" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19">
+      <c r="A50" s="7"/>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:2" ht="20">
+      <c r="A51" s="7">
+        <v>9</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" ht="19">
+      <c r="A53" s="7">
+        <v>10</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" ht="19">
+      <c r="A58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="7">
+        <v>11</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19">
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B48" r:id="rId1" xr:uid="{D1E563EF-7DDE-0E40-A3D6-013FABC99F27}"/>
+    <hyperlink ref="B63" r:id="rId2" xr:uid="{B18627A2-17A6-2E4C-9601-076470548B81}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>